--- a/spliced/walkingToRunning/2023-03-27_19-42-51/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-42-51/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,116 @@
         <v>0.9661948680877686</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-4.548879146575928</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.983122944831848</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.030394077301025</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.2330931723117828</v>
+      </c>
+      <c r="B23" t="n">
+        <v>7.29985761642456</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-8.993494987487793</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4.196409702301025</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-7.729958534240723</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-5.114867210388184</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.506084203720093</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-3.158908605575561</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.592853784561157</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.7066032290458679</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-5.12858247756958</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3414172530174255</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-3.361641645431519</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6.300107002258301</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.977946758270264</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-2.117412805557251</v>
+      </c>
+      <c r="B28" t="n">
+        <v>13.40914916992188</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.111603498458862</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.100218415260315</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.102149248123169</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.866626739501953</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.4749082028865814</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-12.12523937225342</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-7.235276222229004</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.548196077346802</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9.086838722229004</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.108407616615295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
